--- a/TestFiles/HatcoMLSData12162019.xlsx
+++ b/TestFiles/HatcoMLSData12162019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Origami1105\source\repos\HatcoFilesClosedProcessor\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6341FF1E-F7B0-4BC3-8B55-07A979410419}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4E2D2C-9A5F-46AB-94E6-5760953AACAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="276" yWindow="648" windowWidth="15360" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
